--- a/src/Test_data/Test_data.xlsx
+++ b/src/Test_data/Test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM\src\Test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25137E3A-BC48-43B5-B90F-BC5D5E28EF63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AECC5E2-2D17-4344-8F9B-C2579CD1EB28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="6670" firstSheet="9" activeTab="13" xr2:uid="{0ED330E5-A9A3-4B51-B7A4-D3FAF62AA966}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="6670" xr2:uid="{0ED330E5-A9A3-4B51-B7A4-D3FAF62AA966}"/>
   </bookViews>
   <sheets>
     <sheet name="Login sucessfully" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>email</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>bimbimcay</t>
-  </si>
-  <si>
-    <t>Abc@1234</t>
   </si>
   <si>
     <t>hehe</t>
@@ -559,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D26A9D5-1F5F-48E6-91A0-BBE5D626A53F}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,8 +578,8 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+      <c r="B2" s="1">
+        <v>12345678</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -591,7 +588,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D62E86BD-97F2-4C17-AD5A-4BE31A8BAE33}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{F8EC994B-4180-46F6-AA23-45291DBC4DC2}"/>
+    <hyperlink ref="B2" r:id="rId2" display="Abc@1234" xr:uid="{F8EC994B-4180-46F6-AA23-45291DBC4DC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -613,27 +610,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -658,18 +655,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>937537902</v>
@@ -680,7 +677,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>736826372</v>
@@ -711,18 +708,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>9375379022</v>
@@ -733,7 +730,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>1372053863</v>
@@ -744,7 +741,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>2363925272</v>
@@ -755,7 +752,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>3363925272</v>
@@ -766,7 +763,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>4363925272</v>
@@ -777,7 +774,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>5363925272</v>
@@ -788,7 +785,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>6363925272</v>
@@ -821,10 +818,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -832,7 +829,7 @@
         <v>17101</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94995D30-3AE1-4013-8DB9-894A24E0B150}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -856,34 +853,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +916,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -927,7 +924,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -935,15 +932,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4">
         <v>126351</v>
@@ -951,7 +948,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4">
         <v>262816</v>
@@ -985,24 +982,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>937537902</v>
@@ -1013,10 +1010,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C3">
         <v>736826372</v>
@@ -1055,24 +1052,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>9375379022</v>
@@ -1083,10 +1080,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1372053863</v>
@@ -1097,10 +1094,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>2363925272</v>
@@ -1111,10 +1108,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>3363925272</v>
@@ -1125,10 +1122,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>4363925272</v>
@@ -1139,10 +1136,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>5363925272</v>
@@ -1153,10 +1150,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C8">
         <v>6363925272</v>
@@ -1197,10 +1194,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1208,7 +1205,7 @@
         <v>17101</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1233,34 +1230,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1286,17 +1283,17 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1319,28 +1316,28 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1364,17 +1361,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
